--- a/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12403.xlsx
+++ b/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12403.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12403.xlsx
+++ b/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12403.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,22 +471,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Youssef</t>
+          <t>Jalabi</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nasreddin</t>
+          <t>Mohamad Naji</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>10-02-1978</t>
+          <t>01-01-1990</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Hasaka</t>
+          <t>Aleppo</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -506,7 +506,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Lüdenscheid</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -518,45 +518,92 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Youssef</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Nasreddin</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>10-02-1978</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Hasaka</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Herr</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Syrian Arab Republic</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>Ibrahim Salih</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>Omer</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>01-01-1983</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Ghinda</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>000</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Herr</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Eritrea</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>Recklinghausen</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>

--- a/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12403.xlsx
+++ b/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12403.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,27 +471,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Jalabi</t>
+          <t>Yay</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mohamad Naji</t>
+          <t>Samet</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>01-01-1990</t>
+          <t>23-12-1991</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Aleppo</t>
+          <t>Karabük</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>000</t>
+          <t>011</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -501,12 +501,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Syrian Arab Republic</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Lüdenscheid</t>
+          <t>Essen</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -518,22 +518,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Youssef</t>
+          <t>Jalabi</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nasreddin</t>
+          <t>Mohamad Naji</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>10-02-1978</t>
+          <t>01-01-1990</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Hasaka</t>
+          <t>Aleppo</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Lüdenscheid</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -565,45 +565,92 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>Youssef</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Nasreddin</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>10-02-1978</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Hasaka</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Herr</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Syrian Arab Republic</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>Ibrahim Salih</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>Omer</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>01-01-1983</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Ghinda</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>000</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Herr</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Eritrea</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>Recklinghausen</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>

--- a/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12403.xlsx
+++ b/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12403.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,27 +471,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Yay</t>
+          <t>Darwish</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Samet</t>
+          <t>Nazem</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>23-12-1991</t>
+          <t>03-01-1994</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Karabük</t>
+          <t>Hasaka</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>011</t>
+          <t>000</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -501,12 +501,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Syrian Arab Republic</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Essen</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -518,27 +518,27 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Jalabi</t>
+          <t>Yay</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mohamad Naji</t>
+          <t>Samet</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>01-01-1990</t>
+          <t>23-12-1991</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Aleppo</t>
+          <t>Karabük</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>000</t>
+          <t>011</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -548,12 +548,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Syrian Arab Republic</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Lüdenscheid</t>
+          <t>Essen</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -565,22 +565,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Youssef</t>
+          <t>Jalabi</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nasreddin</t>
+          <t>Mohamad Naji</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>10-02-1978</t>
+          <t>01-01-1990</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Hasaka</t>
+          <t>Aleppo</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -600,7 +600,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Lüdenscheid</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -612,45 +612,92 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>Youssef</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Nasreddin</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>10-02-1978</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Hasaka</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Herr</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Syrian Arab Republic</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>Ibrahim Salih</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>Omer</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>01-01-1983</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Ghinda</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>000</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Herr</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Eritrea</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>Recklinghausen</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>

--- a/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12403.xlsx
+++ b/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12403.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,22 +471,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Darwish</t>
+          <t>Alnaiemi</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nazem</t>
+          <t>Esmaeel</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>03-01-1994</t>
+          <t>01.01.1999</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Hasaka</t>
+          <t>Humms</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -506,7 +506,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Münster</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -518,27 +518,27 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Yay</t>
+          <t>Darwish</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Samet</t>
+          <t>Nazem</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>23-12-1991</t>
+          <t>03-01-1994</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Karabük</t>
+          <t>Hasaka</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>011</t>
+          <t>000</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -548,12 +548,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Syrian Arab Republic</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Essen</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -565,27 +565,27 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Jalabi</t>
+          <t>Yay</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mohamad Naji</t>
+          <t>Samet</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>01-01-1990</t>
+          <t>23-12-1991</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Aleppo</t>
+          <t>Karabük</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>000</t>
+          <t>011</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -595,12 +595,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Syrian Arab Republic</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Lüdenscheid</t>
+          <t>Essen</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -612,22 +612,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Youssef</t>
+          <t>Jalabi</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Nasreddin</t>
+          <t>Mohamad Naji</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>10-02-1978</t>
+          <t>01-01-1990</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Hasaka</t>
+          <t>Aleppo</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -647,7 +647,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Lüdenscheid</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -659,45 +659,92 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>Youssef</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Nasreddin</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>10-02-1978</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Hasaka</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Herr</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Syrian Arab Republic</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>Ibrahim Salih</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>Omer</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>01-01-1983</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Ghinda</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>000</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Herr</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>Eritrea</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>Recklinghausen</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>

--- a/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12403.xlsx
+++ b/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12403.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,22 +471,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Alnaiemi</t>
+          <t>Gofar</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Esmaeel</t>
+          <t>Luula</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>01.01.1999</t>
+          <t>10-05-1995</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Humms</t>
+          <t>Eritrea</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -496,17 +496,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Herr</t>
+          <t>Frau</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Syrian Arab Republic</t>
+          <t>Eritrea</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Münster</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -518,22 +518,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Darwish</t>
+          <t>Alnaiemi</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nazem</t>
+          <t>Esmaeel</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>03-01-1994</t>
+          <t>01.01.1999</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Hasaka</t>
+          <t>Humms</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Münster</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -565,27 +565,27 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Yay</t>
+          <t>Darwish</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Samet</t>
+          <t>Nazem</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>23-12-1991</t>
+          <t>03-01-1994</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Karabük</t>
+          <t>Hasaka</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>011</t>
+          <t>000</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -595,12 +595,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Syrian Arab Republic</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Essen</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -612,27 +612,27 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Jalabi</t>
+          <t>Yay</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Mohamad Naji</t>
+          <t>Samet</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>01-01-1990</t>
+          <t>23-12-1991</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Aleppo</t>
+          <t>Karabük</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>000</t>
+          <t>011</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Syrian Arab Republic</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Lüdenscheid</t>
+          <t>Essen</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -659,22 +659,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Youssef</t>
+          <t>Jalabi</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Nasreddin</t>
+          <t>Mohamad Naji</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>10-02-1978</t>
+          <t>01-01-1990</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Hasaka</t>
+          <t>Aleppo</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -694,7 +694,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Lüdenscheid</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -706,45 +706,92 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>Youssef</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Nasreddin</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>10-02-1978</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Hasaka</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Herr</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Syrian Arab Republic</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>Ibrahim Salih</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>Omer</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>01-01-1983</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Ghinda</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>000</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Herr</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>Eritrea</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>Recklinghausen</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>

--- a/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12403.xlsx
+++ b/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12403.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,22 +471,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Gofar</t>
+          <t>Precious</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Luula</t>
+          <t>Agidigbi</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>10-05-1995</t>
+          <t>08-10-1984</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Eritrea</t>
+          <t>Benin city</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -501,12 +501,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Eritrea</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Herdecke</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -518,22 +518,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Alnaiemi</t>
+          <t>Gofar</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Esmaeel</t>
+          <t>Luula</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>01.01.1999</t>
+          <t>10-05-1995</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Humms</t>
+          <t>Eritrea</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -543,17 +543,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Herr</t>
+          <t>Frau</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Syrian Arab Republic</t>
+          <t>Eritrea</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Münster</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -565,22 +565,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Darwish</t>
+          <t>Alnaiemi</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nazem</t>
+          <t>Esmaeel</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>03-01-1994</t>
+          <t>01.01.1999</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Hasaka</t>
+          <t>Humms</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -600,7 +600,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Münster</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -612,27 +612,27 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Yay</t>
+          <t>Darwish</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Samet</t>
+          <t>Nazem</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>23-12-1991</t>
+          <t>03-01-1994</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Karabük</t>
+          <t>Hasaka</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>011</t>
+          <t>000</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Syrian Arab Republic</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Essen</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -659,27 +659,27 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Jalabi</t>
+          <t>Yay</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Mohamad Naji</t>
+          <t>Samet</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>01-01-1990</t>
+          <t>23-12-1991</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Aleppo</t>
+          <t>Karabük</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>000</t>
+          <t>011</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -689,12 +689,12 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Syrian Arab Republic</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Lüdenscheid</t>
+          <t>Essen</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -706,22 +706,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Youssef</t>
+          <t>Jalabi</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Nasreddin</t>
+          <t>Mohamad Naji</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>10-02-1978</t>
+          <t>01-01-1990</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Hasaka</t>
+          <t>Aleppo</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -741,7 +741,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Lüdenscheid</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -753,45 +753,92 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>Youssef</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Nasreddin</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>10-02-1978</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Hasaka</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Herr</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Syrian Arab Republic</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>Ibrahim Salih</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>Omer</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>01-01-1983</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Ghinda</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>000</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Herr</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>Eritrea</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>Recklinghausen</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>

--- a/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12403.xlsx
+++ b/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12403.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,22 +471,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Precious</t>
+          <t>Eddassaa</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Agidigbi</t>
+          <t>Saadia</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>08-10-1984</t>
+          <t>20-05-1994</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Benin city</t>
+          <t>Idaougnidif</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -501,12 +501,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Morocco</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Herdecke</t>
+          <t>Iserlohn</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -518,22 +518,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Gofar</t>
+          <t>Precious</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Luula</t>
+          <t>Agidigbi</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>10-05-1995</t>
+          <t>08-10-1984</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Eritrea</t>
+          <t>Benin city</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -548,12 +548,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Eritrea</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Herdecke</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -565,22 +565,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Alnaiemi</t>
+          <t>Gofar</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Esmaeel</t>
+          <t>Luula</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>01.01.1999</t>
+          <t>10-05-1995</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Humms</t>
+          <t>Eritrea</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -590,17 +590,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Herr</t>
+          <t>Frau</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Syrian Arab Republic</t>
+          <t>Eritrea</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Münster</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -612,22 +612,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Darwish</t>
+          <t>Alnaiemi</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Nazem</t>
+          <t>Esmaeel</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>03-01-1994</t>
+          <t>01.01.1999</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Hasaka</t>
+          <t>Humms</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -647,7 +647,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Münster</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -659,27 +659,27 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Yay</t>
+          <t>Darwish</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Samet</t>
+          <t>Nazem</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>23-12-1991</t>
+          <t>03-01-1994</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Karabük</t>
+          <t>Hasaka</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>011</t>
+          <t>000</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -689,12 +689,12 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Syrian Arab Republic</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Essen</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -706,27 +706,27 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Jalabi</t>
+          <t>Yay</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Mohamad Naji</t>
+          <t>Samet</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>01-01-1990</t>
+          <t>23-12-1991</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Aleppo</t>
+          <t>Karabük</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>000</t>
+          <t>011</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -736,12 +736,12 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Syrian Arab Republic</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Lüdenscheid</t>
+          <t>Essen</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -753,22 +753,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Youssef</t>
+          <t>Jalabi</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Nasreddin</t>
+          <t>Mohamad Naji</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>10-02-1978</t>
+          <t>01-01-1990</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Hasaka</t>
+          <t>Aleppo</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -788,7 +788,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Lüdenscheid</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -800,45 +800,92 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>Youssef</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Nasreddin</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>10-02-1978</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Hasaka</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Herr</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Syrian Arab Republic</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
           <t>Ibrahim Salih</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>Omer</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>01-01-1983</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>Ghinda</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>000</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Herr</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>Eritrea</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>Recklinghausen</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>

--- a/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12403.xlsx
+++ b/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12403.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,22 +471,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Eddassaa</t>
+          <t>Alesa</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Saadia</t>
+          <t>Feras</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>20-05-1994</t>
+          <t>01-01-1991</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Idaougnidif</t>
+          <t>Menbej</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -496,17 +496,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Frau</t>
+          <t>Herr</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Morocco</t>
+          <t>Syrian Arab Republic</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Iserlohn</t>
+          <t>Gelsenkirchen</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -518,22 +518,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Precious</t>
+          <t>Eddassaa</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Agidigbi</t>
+          <t>Saadia</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>08-10-1984</t>
+          <t>20-05-1994</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Benin city</t>
+          <t>Idaougnidif</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -548,12 +548,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Morocco</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Herdecke</t>
+          <t>Iserlohn</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -565,22 +565,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Gofar</t>
+          <t>Precious</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Luula</t>
+          <t>Agidigbi</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>10-05-1995</t>
+          <t>08-10-1984</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Eritrea</t>
+          <t>Benin city</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -595,12 +595,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Eritrea</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Herdecke</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -612,22 +612,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Alnaiemi</t>
+          <t>Gofar</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Esmaeel</t>
+          <t>Luula</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>01.01.1999</t>
+          <t>10-05-1995</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Humms</t>
+          <t>Eritrea</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -637,17 +637,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Herr</t>
+          <t>Frau</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Syrian Arab Republic</t>
+          <t>Eritrea</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Münster</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -659,22 +659,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Darwish</t>
+          <t>Alnaiemi</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Nazem</t>
+          <t>Esmaeel</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>03-01-1994</t>
+          <t>01.01.1999</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Hasaka</t>
+          <t>Humms</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -694,7 +694,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Münster</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -706,27 +706,27 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Yay</t>
+          <t>Darwish</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Samet</t>
+          <t>Nazem</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>23-12-1991</t>
+          <t>03-01-1994</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Karabük</t>
+          <t>Hasaka</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>011</t>
+          <t>000</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -736,12 +736,12 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Syrian Arab Republic</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Essen</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -753,27 +753,27 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Jalabi</t>
+          <t>Yay</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Mohamad Naji</t>
+          <t>Samet</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>01-01-1990</t>
+          <t>23-12-1991</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Aleppo</t>
+          <t>Karabük</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>000</t>
+          <t>011</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -783,12 +783,12 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Syrian Arab Republic</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Lüdenscheid</t>
+          <t>Essen</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -800,22 +800,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Youssef</t>
+          <t>Jalabi</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Nasreddin</t>
+          <t>Mohamad Naji</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>10-02-1978</t>
+          <t>01-01-1990</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Hasaka</t>
+          <t>Aleppo</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Lüdenscheid</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -847,45 +847,92 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Youssef</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Nasreddin</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>10-02-1978</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Hasaka</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Herr</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Syrian Arab Republic</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Ibrahim Salih</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>Omer</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>01-01-1983</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>Ghinda</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>000</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>Herr</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>Eritrea</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>Recklinghausen</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>

--- a/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12403.xlsx
+++ b/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12403.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,22 +471,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Alesa</t>
+          <t>Lirije</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Feras</t>
+          <t>Terziu</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>01-01-1991</t>
+          <t>10-05-1983</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Menbej</t>
+          <t>Gostimë</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -496,17 +496,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Herr</t>
+          <t>Frau</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Syrian Arab Republic</t>
+          <t>Albania</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Gelsenkirchen</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -518,22 +518,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Eddassaa</t>
+          <t>Alesa</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Saadia</t>
+          <t>Feras</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>20-05-1994</t>
+          <t>01-01-1991</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Idaougnidif</t>
+          <t>Menbej</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -543,17 +543,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Frau</t>
+          <t>Herr</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Morocco</t>
+          <t>Syrian Arab Republic</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Iserlohn</t>
+          <t>Gelsenkirchen</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -565,22 +565,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Precious</t>
+          <t>Eddassaa</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Agidigbi</t>
+          <t>Saadia</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>08-10-1984</t>
+          <t>20-05-1994</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Benin city</t>
+          <t>Idaougnidif</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -595,12 +595,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Morocco</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Herdecke</t>
+          <t>Iserlohn</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -612,22 +612,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Gofar</t>
+          <t>Precious</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Luula</t>
+          <t>Agidigbi</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>10-05-1995</t>
+          <t>08-10-1984</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Eritrea</t>
+          <t>Benin city</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Eritrea</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Herdecke</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -659,22 +659,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Alnaiemi</t>
+          <t>Gofar</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Esmaeel</t>
+          <t>Luula</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>01.01.1999</t>
+          <t>10-05-1995</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Humms</t>
+          <t>Eritrea</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -684,17 +684,17 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Herr</t>
+          <t>Frau</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Syrian Arab Republic</t>
+          <t>Eritrea</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Münster</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -706,22 +706,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Darwish</t>
+          <t>Alnaiemi</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Nazem</t>
+          <t>Esmaeel</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>03-01-1994</t>
+          <t>01.01.1999</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Hasaka</t>
+          <t>Humms</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -741,7 +741,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Münster</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -753,27 +753,27 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Yay</t>
+          <t>Darwish</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Samet</t>
+          <t>Nazem</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>23-12-1991</t>
+          <t>03-01-1994</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Karabük</t>
+          <t>Hasaka</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>011</t>
+          <t>000</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -783,12 +783,12 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Syrian Arab Republic</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Essen</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -800,27 +800,27 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Jalabi</t>
+          <t>Yay</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Mohamad Naji</t>
+          <t>Samet</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>01-01-1990</t>
+          <t>23-12-1991</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Aleppo</t>
+          <t>Karabük</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>000</t>
+          <t>011</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -830,12 +830,12 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Syrian Arab Republic</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Lüdenscheid</t>
+          <t>Essen</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -847,22 +847,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Youssef</t>
+          <t>Jalabi</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Nasreddin</t>
+          <t>Mohamad Naji</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>10-02-1978</t>
+          <t>01-01-1990</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Hasaka</t>
+          <t>Aleppo</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -882,7 +882,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Lüdenscheid</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -894,45 +894,92 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>Youssef</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Nasreddin</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>10-02-1978</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Hasaka</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Herr</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Syrian Arab Republic</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>Ibrahim Salih</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>Omer</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>01-01-1983</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>Ghinda</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>000</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>Herr</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>Eritrea</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>Recklinghausen</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>

--- a/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12403.xlsx
+++ b/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12403.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,22 +471,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Lirije</t>
+          <t>Mohamed</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Terziu</t>
+          <t>Mohamed Ali Maher</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>10-05-1983</t>
+          <t>03-09-1990</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Gostimë</t>
+          <t>saudi-arabien</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -496,17 +496,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Frau</t>
+          <t>Herr</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Albania</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Düsseldorf</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -518,22 +518,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Alesa</t>
+          <t>Lirije</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Feras</t>
+          <t>Terziu</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>01-01-1991</t>
+          <t>10-05-1983</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Menbej</t>
+          <t>Gostimë</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -543,17 +543,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Herr</t>
+          <t>Frau</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Syrian Arab Republic</t>
+          <t>Albania</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Gelsenkirchen</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -565,22 +565,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Eddassaa</t>
+          <t>Alesa</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Saadia</t>
+          <t>Feras</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>20-05-1994</t>
+          <t>01-01-1991</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Idaougnidif</t>
+          <t>Menbej</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -590,17 +590,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Frau</t>
+          <t>Herr</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Morocco</t>
+          <t>Syrian Arab Republic</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Iserlohn</t>
+          <t>Gelsenkirchen</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -612,22 +612,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Precious</t>
+          <t>Eddassaa</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Agidigbi</t>
+          <t>Saadia</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>08-10-1984</t>
+          <t>20-05-1994</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Benin city</t>
+          <t>Idaougnidif</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Morocco</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Herdecke</t>
+          <t>Iserlohn</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -659,22 +659,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Gofar</t>
+          <t>Precious</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Luula</t>
+          <t>Agidigbi</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>10-05-1995</t>
+          <t>08-10-1984</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Eritrea</t>
+          <t>Benin city</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -689,12 +689,12 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Eritrea</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Herdecke</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -706,22 +706,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Alnaiemi</t>
+          <t>Gofar</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Esmaeel</t>
+          <t>Luula</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>01.01.1999</t>
+          <t>10-05-1995</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Humms</t>
+          <t>Eritrea</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -731,17 +731,17 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Herr</t>
+          <t>Frau</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Syrian Arab Republic</t>
+          <t>Eritrea</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Münster</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -753,22 +753,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Darwish</t>
+          <t>Alnaiemi</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Nazem</t>
+          <t>Esmaeel</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>03-01-1994</t>
+          <t>01.01.1999</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Hasaka</t>
+          <t>Humms</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -788,7 +788,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Münster</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -800,27 +800,27 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Yay</t>
+          <t>Darwish</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Samet</t>
+          <t>Nazem</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>23-12-1991</t>
+          <t>03-01-1994</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Karabük</t>
+          <t>Hasaka</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>011</t>
+          <t>000</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -830,12 +830,12 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Syrian Arab Republic</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Essen</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -847,27 +847,27 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Jalabi</t>
+          <t>Yay</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Mohamad Naji</t>
+          <t>Samet</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>01-01-1990</t>
+          <t>23-12-1991</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Aleppo</t>
+          <t>Karabük</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>000</t>
+          <t>011</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -877,12 +877,12 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Syrian Arab Republic</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Lüdenscheid</t>
+          <t>Essen</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -894,22 +894,22 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Youssef</t>
+          <t>Jalabi</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Nasreddin</t>
+          <t>Mohamad Naji</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>10-02-1978</t>
+          <t>01-01-1990</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Hasaka</t>
+          <t>Aleppo</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -929,7 +929,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Lüdenscheid</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -941,45 +941,92 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>Youssef</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Nasreddin</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>10-02-1978</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Hasaka</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Herr</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Syrian Arab Republic</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
           <t>Ibrahim Salih</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>Omer</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>01-01-1983</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>Ghinda</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>000</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>Herr</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>Eritrea</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>Recklinghausen</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>

--- a/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12403.xlsx
+++ b/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12403.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,22 +471,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Mohamed</t>
+          <t>Alhussein Alali</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mohamed Ali Maher</t>
+          <t>Nawras</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>03-09-1990</t>
+          <t>01-01-1999</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>saudi-arabien</t>
+          <t>Aleppo</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -501,12 +501,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Syrian Arab Republic</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Düsseldorf</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -518,22 +518,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Lirije</t>
+          <t>Mohamed</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Terziu</t>
+          <t>Mohamed Ali Maher</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>10-05-1983</t>
+          <t>03-09-1990</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Gostimë</t>
+          <t>saudi-arabien</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -543,17 +543,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Frau</t>
+          <t>Herr</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Albania</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Düsseldorf</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -565,22 +565,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Alesa</t>
+          <t>Lirije</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Feras</t>
+          <t>Terziu</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>01-01-1991</t>
+          <t>10-05-1983</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Menbej</t>
+          <t>Gostimë</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -590,17 +590,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Herr</t>
+          <t>Frau</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Syrian Arab Republic</t>
+          <t>Albania</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Gelsenkirchen</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -612,22 +612,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Eddassaa</t>
+          <t>Alesa</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Saadia</t>
+          <t>Feras</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>20-05-1994</t>
+          <t>01-01-1991</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Idaougnidif</t>
+          <t>Menbej</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -637,17 +637,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Frau</t>
+          <t>Herr</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Morocco</t>
+          <t>Syrian Arab Republic</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Iserlohn</t>
+          <t>Gelsenkirchen</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -659,22 +659,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Precious</t>
+          <t>Eddassaa</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Agidigbi</t>
+          <t>Saadia</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>08-10-1984</t>
+          <t>20-05-1994</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Benin city</t>
+          <t>Idaougnidif</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -689,12 +689,12 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Morocco</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Herdecke</t>
+          <t>Iserlohn</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -706,22 +706,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Gofar</t>
+          <t>Precious</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Luula</t>
+          <t>Agidigbi</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>10-05-1995</t>
+          <t>08-10-1984</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Eritrea</t>
+          <t>Benin city</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -736,12 +736,12 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Eritrea</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Herdecke</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -753,22 +753,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Alnaiemi</t>
+          <t>Gofar</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Esmaeel</t>
+          <t>Luula</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>01.01.1999</t>
+          <t>10-05-1995</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Humms</t>
+          <t>Eritrea</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -778,17 +778,17 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Herr</t>
+          <t>Frau</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Syrian Arab Republic</t>
+          <t>Eritrea</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Münster</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -800,22 +800,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Darwish</t>
+          <t>Alnaiemi</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Nazem</t>
+          <t>Esmaeel</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>03-01-1994</t>
+          <t>01.01.1999</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Hasaka</t>
+          <t>Humms</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Münster</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -847,27 +847,27 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Yay</t>
+          <t>Darwish</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Samet</t>
+          <t>Nazem</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>23-12-1991</t>
+          <t>03-01-1994</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Karabük</t>
+          <t>Hasaka</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>011</t>
+          <t>000</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -877,12 +877,12 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Syrian Arab Republic</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Essen</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -894,27 +894,27 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Jalabi</t>
+          <t>Yay</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Mohamad Naji</t>
+          <t>Samet</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>01-01-1990</t>
+          <t>23-12-1991</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Aleppo</t>
+          <t>Karabük</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>000</t>
+          <t>011</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -924,12 +924,12 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Syrian Arab Republic</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Lüdenscheid</t>
+          <t>Essen</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -941,22 +941,22 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Youssef</t>
+          <t>Jalabi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Nasreddin</t>
+          <t>Mohamad Naji</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>10-02-1978</t>
+          <t>01-01-1990</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Hasaka</t>
+          <t>Aleppo</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -976,7 +976,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Lüdenscheid</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -988,45 +988,92 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>Youssef</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Nasreddin</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>10-02-1978</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Hasaka</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Herr</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Syrian Arab Republic</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
           <t>Ibrahim Salih</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>Omer</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>01-01-1983</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>Ghinda</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
         <is>
           <t>Herr</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>Eritrea</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>Recklinghausen</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>

--- a/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12403.xlsx
+++ b/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12403.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,44 +469,14 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Alhussein Alali</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Nawras</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>01-01-1999</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Aleppo</t>
-        </is>
-      </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>000</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Herr</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Syrian Arab Republic</t>
-        </is>
-      </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Witten</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -518,22 +488,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Mohamed</t>
+          <t>Alhussein Alali</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mohamed Ali Maher</t>
+          <t>Nawras</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>03-09-1990</t>
+          <t>01-01-1999</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>saudi-arabien</t>
+          <t>Aleppo</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -548,12 +518,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Syrian Arab Republic</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Düsseldorf</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -565,22 +535,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Lirije</t>
+          <t>Mohamed</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Terziu</t>
+          <t>Mohamed Ali Maher</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>10-05-1983</t>
+          <t>03-09-1990</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Gostimë</t>
+          <t>saudi-arabien</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -590,17 +560,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Frau</t>
+          <t>Herr</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Albania</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Düsseldorf</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -612,22 +582,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Alesa</t>
+          <t>Lirije</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Feras</t>
+          <t>Terziu</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>01-01-1991</t>
+          <t>10-05-1983</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Menbej</t>
+          <t>Gostimë</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -637,17 +607,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Herr</t>
+          <t>Frau</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Syrian Arab Republic</t>
+          <t>Albania</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Gelsenkirchen</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -659,22 +629,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Eddassaa</t>
+          <t>Alesa</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Saadia</t>
+          <t>Feras</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>20-05-1994</t>
+          <t>01-01-1991</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Idaougnidif</t>
+          <t>Menbej</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -684,17 +654,17 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Frau</t>
+          <t>Herr</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Morocco</t>
+          <t>Syrian Arab Republic</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Iserlohn</t>
+          <t>Gelsenkirchen</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -706,22 +676,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Precious</t>
+          <t>Eddassaa</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Agidigbi</t>
+          <t>Saadia</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>08-10-1984</t>
+          <t>20-05-1994</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Benin city</t>
+          <t>Idaougnidif</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -736,12 +706,12 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Morocco</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Herdecke</t>
+          <t>Iserlohn</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -753,22 +723,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Gofar</t>
+          <t>Precious</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Luula</t>
+          <t>Agidigbi</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>10-05-1995</t>
+          <t>08-10-1984</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Eritrea</t>
+          <t>Benin city</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -783,12 +753,12 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Eritrea</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Herdecke</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -800,22 +770,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Alnaiemi</t>
+          <t>Gofar</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Esmaeel</t>
+          <t>Luula</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>01.01.1999</t>
+          <t>10-05-1995</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Humms</t>
+          <t>Eritrea</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -825,17 +795,17 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Herr</t>
+          <t>Frau</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Syrian Arab Republic</t>
+          <t>Eritrea</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Münster</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -847,22 +817,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Darwish</t>
+          <t>Alnaiemi</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Nazem</t>
+          <t>Esmaeel</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>03-01-1994</t>
+          <t>01.01.1999</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Hasaka</t>
+          <t>Humms</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -882,7 +852,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Münster</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -894,27 +864,27 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Yay</t>
+          <t>Darwish</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Samet</t>
+          <t>Nazem</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>23-12-1991</t>
+          <t>03-01-1994</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Karabük</t>
+          <t>Hasaka</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>011</t>
+          <t>000</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -924,12 +894,12 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Syrian Arab Republic</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Essen</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -941,27 +911,27 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Jalabi</t>
+          <t>Yay</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Mohamad Naji</t>
+          <t>Samet</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>01-01-1990</t>
+          <t>23-12-1991</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Aleppo</t>
+          <t>Karabük</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>000</t>
+          <t>011</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -971,12 +941,12 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Syrian Arab Republic</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Lüdenscheid</t>
+          <t>Essen</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -988,22 +958,22 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Youssef</t>
+          <t>Jalabi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Nasreddin</t>
+          <t>Mohamad Naji</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>10-02-1978</t>
+          <t>01-01-1990</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Hasaka</t>
+          <t>Aleppo</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1023,7 +993,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Lüdenscheid</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1035,45 +1005,92 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>Youssef</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Nasreddin</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>10-02-1978</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Hasaka</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Herr</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Syrian Arab Republic</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
           <t>Ibrahim Salih</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>Omer</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>01-01-1983</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>Ghinda</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
         <is>
           <t>Herr</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>Eritrea</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>Recklinghausen</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>
